--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3821,4 +3822,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>320.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.6208</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>10.0404</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>52.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.9928</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>85.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.6095</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>32.21</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>38.90</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2059</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0916</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9911</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9267</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9000</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8527</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7987</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7466</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.38</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5000</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4260</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3784</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3413</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3370</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2452</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2392</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001758</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实研究增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1699</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1392</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008723</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>永赢鑫享混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0871</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>399001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中海上证50指数增强</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0685</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5360,4 +5361,1846 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>338.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.3704</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>226.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.8721</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.0941</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>33.96</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0224</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9914</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.82</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8694</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.38</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7725</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7673</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6183</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6072</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4256</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2923</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1048</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007806</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007807</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信MSCI中国A股指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>84.40</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>97.25</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.40</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7203,4 +7204,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>50</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7212,7 +7213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7223,17 +7224,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7243,14 +7264,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>38.8</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>358.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>12.8719</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -7259,14 +7302,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.33</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>238.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.5229</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -7275,14 +7340,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>36</v>
-      </c>
-      <c r="D4" t="n">
-        <v>45.62</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -7291,13 +7378,1519 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1313</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9799</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8698</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7792</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.82</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7295</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5763</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5373</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4987</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4080</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.54</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3127</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1823</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.12</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>40</v>
+      </c>
+      <c r="D2" t="n">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>50</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>54.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8789,7 +8790,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8800,17 +8801,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8820,14 +8841,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>40</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.13</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.2174</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -8836,14 +8879,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>38.8</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>230.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.1586</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -8852,14 +8917,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.33</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7715</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8868,14 +8955,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>36</v>
-      </c>
-      <c r="D5" t="n">
-        <v>45.62</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5080</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -8884,13 +8993,1345 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0841</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.99</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9683</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.93</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6716</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6365</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.63</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6222</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5891</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4929</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4686</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.31</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4651</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4022</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3553</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1425</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>36</v>
+      </c>
+      <c r="D2" t="n">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>40</v>
+      </c>
+      <c r="D3" t="n">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>36</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>50</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>54.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10214,7 +10215,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10225,17 +10226,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -10245,14 +10266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>36</v>
-      </c>
-      <c r="D2" t="n">
-        <v>33.32</v>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>326.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.0697</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -10261,14 +10304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>40</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.13</v>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>228.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.7748</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -10277,14 +10342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>38.8</v>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7151</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -10293,14 +10380,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>39</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51.33</v>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3594</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -10309,14 +10418,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>36</v>
-      </c>
-      <c r="D6" t="n">
-        <v>45.62</v>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>36.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0355</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -10325,13 +10456,1399 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9160</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8031</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.74</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>20.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6646</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6019</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5798</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4603</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4542</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.28</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4250</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2692</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1680</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1565</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1469</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1432</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>96.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>38</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>36</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>39</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51.33</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>36</v>
+      </c>
+      <c r="D7" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>54.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>32.54</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" t="n">
-        <v>33.32</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" t="n">
-        <v>37.13</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D5" t="n">
-        <v>38.8</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>51.33</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>45.62</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>36</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>50</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>54.26</v>
       </c>
     </row>
@@ -600,6 +617,1772 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>289.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.0377</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>215.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.5568</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6041</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>38.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1090</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9520</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.28</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7352</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5346</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4482</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4115</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3998</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3063</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.15</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2296</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1938</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1836</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1718</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1409</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1265</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010404</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博道盛利6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>41.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2099,7 +3882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3523,7 +5306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5099,7 +6882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6941,7 +8724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8479,7 +10262,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9903,7 +11686,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
+++ b/数据整理/stocks/A股/上证主板/600999-招商证券.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>30.31</v>
+        <v>32.02</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D3" t="n">
-        <v>32.54</v>
+        <v>30.31</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" t="n">
-        <v>33.32</v>
+        <v>32.54</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" t="n">
-        <v>37.13</v>
+        <v>33.32</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D6" t="n">
-        <v>38.8</v>
+        <v>37.13</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>51.33</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D8" t="n">
-        <v>45.62</v>
+        <v>51.33</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1984 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>45.62</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>50</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>54.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>389.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18.4799</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>229.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.1117</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2660</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.46</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5915</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5095</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8538</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4612</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2331</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.87</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0600</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9878</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8510</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8253</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7857</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008591</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5839</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5834</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5709</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5424</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008590</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数LOF C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4346</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3264</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2803</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2776</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2477</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162102</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>金鹰中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.19</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1889</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009971</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009973</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1605</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>003064</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方荣欢定期开放混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.85</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>257040</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国联安红利混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>200010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城双动力混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000423</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0681</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>510130</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达上证中盘ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>山西证券裕盛一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001865</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源事件驱动混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510220</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证中小盘ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005111</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>泰康泉林量化价值精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009974</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009972</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>40.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2588,1962 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>296.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.3003</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>512000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>221.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>7.6052</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>76.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6227</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512070</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达沪深300非银行金融ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5682</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159841</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159993</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华国证证券龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9294</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161720</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7475</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501016</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5702</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>163113</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5532</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19.93</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161027</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>13.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4212</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>502010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3734</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3509</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001552</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>天弘中证证券保险指数A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501048</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3081</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>160625</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160516</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>博时中证全指证券公司指数</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501047</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富中证全指证券公司指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2060</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012044</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1840</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159842</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>515560</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>502053</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长盛中证全指证券公司指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1279</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>160419</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安中证证券公司A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012874</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>易方达证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>016620</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>512570</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>易方达中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>515850</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0640</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003344</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013276</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证全指证券公司指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>510200</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇安上证证券ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>95.50</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159848</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国联安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.80</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>44.22</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515630</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516730</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>浦银安盛中证证券公司30ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>96.86</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012606</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012605</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西藏东财中证证券保险领先指数A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516200</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安中证全指证券公司ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>100.45</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003343</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏华弘惠灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>20.33</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013597</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商中证全指证券公司指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015860</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>015859</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>宝盈国证证券龙头指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>015598</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>516980</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华富中证证券公司先锋策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>014984</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安中证证券公司C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015178</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信中证申万证券行业指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015693</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华中证800证券保险指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2382,7 +6309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3882,7 +7809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5306,7 +9233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6882,7 +10809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8724,7 +12651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10262,7 +14189,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11684,1958 +15611,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512880</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>389.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>18.4799</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>512000</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华宝中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>229.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>99.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>11.1117</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512900</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>南方中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>67.62</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.89</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.83</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.2660</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161720</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>招商中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>56.46</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.94</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5915</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512960</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>博时中证央企结构调整ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>99.98</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>99.50</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.5095</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>163113</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>申万菱信中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>34.33</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.8538</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.56</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.4612</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501016</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>国泰中证申万证券行业指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>22.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2331</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512070</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>易方达沪深300非银行金融ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.87</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>1.0600</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001552</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28.55</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.9878</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>501047</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.84</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.8510</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159993</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华国证证券龙头ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>15.72</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>97.91</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.8253</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>160633</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏华中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>17.23</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.7857</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008591</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>12.87</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.5894</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>630001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商领先企业混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>15.05</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>88.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.5839</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001449</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华商双驱优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13.17</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>89.08</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.5834</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001553</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>天弘中证证券保险指数型发起式 C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>16.50</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.96</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.5709</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>515560</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>建信中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>11.30</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.5424</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>008590</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>天弘中证全指证券公司指数A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>11.61</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>95.04</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.5317</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>501048</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>汇添富中证全指证券公司指数LOF C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.22</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.63</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.4875</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>160625</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>13.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.57</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.4346</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>515010</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>98.48</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.3405</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>502010</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>易方达证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>94.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.3264</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.2803</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>160419</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华安中证全指证券公司指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>94.69</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.2776</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>398041</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>中海量化策略混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>95.40</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.2477</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>162102</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>金鹰中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>75.19</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.1889</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009971</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>5.28</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.1605</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>009973</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.1605</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>502053</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>长盛中证全指证券公司指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.1301</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>160516</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>博时中证全指证券公司指数</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2.60</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>94.89</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.1186</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>003064</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>南方荣欢定期开放混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>5.63</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>29.85</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0946</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>257040</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国联安红利混合</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>92.70</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0886</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>200010</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>长城双动力混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>90.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0762</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>000423</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0759</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>510200</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>汇安上证证券ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.77</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0756</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>515630</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>鹏华中证800证券保险ETF</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>96.93</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0681</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>515850</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>富国中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>98.94</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0588</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>510130</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>易方达上证中盘ETF</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0471</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>005000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合A</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0357</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>512570</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>易方达中证全指证券公司ETF</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>98.58</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009595</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>山西证券裕盛一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>93.91</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>001865</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>前海开源事件驱动混合C</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>88.77</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>005146</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>兴银丰润灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>94.02</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.0086</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>004456</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>兴银消费新趋势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>90.51</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>002159</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>东吴国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.0048</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>510220</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证中小盘ETF</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>97.83</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.0026</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>005111</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>泰康泉林量化价值精选混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>009974</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>创金合信核心资产混合C</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>87.99</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>009972</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>创金合信核心价值混合C</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>40.74</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>